--- a/data/trans_orig/P64E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3099</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8258</v>
+        <v>8308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008356192038921866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002739179579857033</v>
+        <v>0.00273756821170515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02226336826181916</v>
+        <v>0.02239980028840346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5477</v>
+        <v>5323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006602848156796001</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03687322218772311</v>
+        <v>0.03583858644811152</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4080</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10188</v>
+        <v>9329</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007854819759005278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001973254600458804</v>
+        <v>0.001994262701244325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01961435458530275</v>
+        <v>0.01795924064340775</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7338</v>
+        <v>6629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005660521096827416</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01978325159624222</v>
+        <v>0.0178722886883207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6964</v>
+        <v>7420</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004041883477154481</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01340592605613546</v>
+        <v>0.01428449059108034</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>4967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1887</v>
+        <v>1901</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10334</v>
+        <v>11053</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0133920778428865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005088570826703096</v>
+        <v>0.005125196121708932</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02786151070412623</v>
+        <v>0.02979977385395865</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>4967</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1884</v>
+        <v>1810</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11114</v>
+        <v>10988</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009562585711104882</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003626401420966073</v>
+        <v>0.003483996284600724</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02139592835702026</v>
+        <v>0.02115288130614267</v>
       </c>
     </row>
     <row r="7">
@@ -941,19 +941,19 @@
         <v>47222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35738</v>
+        <v>35768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61697</v>
+        <v>62579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1273156463194048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09635461286200152</v>
+        <v>0.09643481215546347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1663441141193923</v>
+        <v>0.1687213291527646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -962,19 +962,19 @@
         <v>3032</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7593</v>
+        <v>8345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02041112097195539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006227914858377002</v>
+        <v>0.006265948278750672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05112034430571154</v>
+        <v>0.05618499065431094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -983,19 +983,19 @@
         <v>50253</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37399</v>
+        <v>37893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64789</v>
+        <v>65750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09674607799156219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07199873657009512</v>
+        <v>0.07295038066514191</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1247291358655415</v>
+        <v>0.1265800572450643</v>
       </c>
     </row>
     <row r="8">
@@ -1012,19 +1012,19 @@
         <v>313514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298440</v>
+        <v>297173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>325381</v>
+        <v>325257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8452755627019594</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8046319068546409</v>
+        <v>0.8012178947333474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8772698866560329</v>
+        <v>0.8769361329109371</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>138</v>
@@ -1033,19 +1033,19 @@
         <v>144522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>139380</v>
+        <v>138551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>147394</v>
+        <v>147567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9729860308712486</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9383735133829647</v>
+        <v>0.9327886107926759</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9923274166269668</v>
+        <v>0.9934888689158845</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>436</v>
@@ -1054,19 +1054,19 @@
         <v>458035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>441107</v>
+        <v>443030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>471298</v>
+        <v>472095</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8817946330611731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8492059864278622</v>
+        <v>0.8529066215530096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9073289189295294</v>
+        <v>0.908862724787693</v>
       </c>
     </row>
     <row r="9">
@@ -1158,19 +1158,19 @@
         <v>14602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8126</v>
+        <v>7707</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23854</v>
+        <v>24017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01313072186345856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00730663446105072</v>
+        <v>0.006930181319922777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02145021112259033</v>
+        <v>0.02159669179662562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5895</v>
+        <v>5939</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00340471039931571</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01023690985039381</v>
+        <v>0.01031335028176918</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1200,19 +1200,19 @@
         <v>16563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9723</v>
+        <v>9067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27007</v>
+        <v>26333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009812418128405708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005760318359975714</v>
+        <v>0.005371528777805283</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01599947114410134</v>
+        <v>0.01559995261618536</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>15364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8882</v>
+        <v>8853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26516</v>
+        <v>25794</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0138153915140604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007986997168898561</v>
+        <v>0.00796106300283028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02384339794268809</v>
+        <v>0.0231941147317005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1250,19 +1250,19 @@
         <v>8201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3455</v>
+        <v>3196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16435</v>
+        <v>16269</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0142396348557978</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005998864061765074</v>
+        <v>0.005549014625057614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02853730769186034</v>
+        <v>0.02824941287863209</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1271,19 +1271,19 @@
         <v>23565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15102</v>
+        <v>14868</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36353</v>
+        <v>36722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01396013412213243</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008946573800592226</v>
+        <v>0.008807943722883621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0215364590620351</v>
+        <v>0.02175500167719127</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>30549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21735</v>
+        <v>21505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43993</v>
+        <v>43546</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02747003593940999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01954438077971137</v>
+        <v>0.0193377834846639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03955920958439711</v>
+        <v>0.03915687794773388</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1321,19 +1321,19 @@
         <v>3962</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1065</v>
+        <v>1025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9840</v>
+        <v>9147</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006878920445282665</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001849965542962355</v>
+        <v>0.001779995657715775</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01708550169538793</v>
+        <v>0.01588327480537217</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -1342,19 +1342,19 @@
         <v>34511</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23789</v>
+        <v>24231</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46649</v>
+        <v>48856</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02044479484186734</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01409321757042931</v>
+        <v>0.01435519239545906</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02763570128498999</v>
+        <v>0.02894330383864934</v>
       </c>
     </row>
     <row r="13">
@@ -1371,19 +1371,19 @@
         <v>154906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130787</v>
+        <v>133493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178697</v>
+        <v>179028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1392935183564917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1176054232717754</v>
+        <v>0.1200391522796805</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1606864955395753</v>
+        <v>0.1609841242699473</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1392,19 +1392,19 @@
         <v>45128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33314</v>
+        <v>33352</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58969</v>
+        <v>59269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07836100728598147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05784626354838023</v>
+        <v>0.05791324836441002</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1023931775318551</v>
+        <v>0.1029149228765911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>193</v>
@@ -1413,19 +1413,19 @@
         <v>200034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173594</v>
+        <v>173484</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227720</v>
+        <v>229511</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1185046698324228</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1028411092161554</v>
+        <v>0.1027757064242569</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1349060035337916</v>
+        <v>0.1359672982275198</v>
       </c>
     </row>
     <row r="14">
@@ -1442,19 +1442,19 @@
         <v>896661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>869265</v>
+        <v>868785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923008</v>
+        <v>922463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8062903323265793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7816553782096661</v>
+        <v>0.7812234522152034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8299818099198777</v>
+        <v>0.8294917054813952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -1463,19 +1463,19 @@
         <v>516653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502096</v>
+        <v>502006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>530117</v>
+        <v>530137</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8971157270136223</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.871838930598565</v>
+        <v>0.8716829410713758</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9204953742182815</v>
+        <v>0.9205299663147926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1350</v>
@@ -1484,19 +1484,19 @@
         <v>1413314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1380490</v>
+        <v>1378974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1443368</v>
+        <v>1442235</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8372779830751717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8178320393884719</v>
+        <v>0.8169342805619565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8550826424062066</v>
+        <v>0.8544110542310515</v>
       </c>
     </row>
     <row r="15">
@@ -1588,19 +1588,19 @@
         <v>13088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7034</v>
+        <v>6788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22573</v>
+        <v>24233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03295614450881781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01771129720471596</v>
+        <v>0.01709362481198538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05684252210314979</v>
+        <v>0.06102245069624967</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1609,19 +1609,19 @@
         <v>6658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2907</v>
+        <v>2842</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13240</v>
+        <v>13207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0230000787804214</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01004255289660818</v>
+        <v>0.009816773761116837</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04573801342992334</v>
+        <v>0.04562354888674683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1630,19 +1630,19 @@
         <v>19746</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12335</v>
+        <v>12299</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30400</v>
+        <v>30351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02875854959065751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0179652230959284</v>
+        <v>0.0179131125777009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04427646631363284</v>
+        <v>0.04420521653328252</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>17355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9884</v>
+        <v>10728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26367</v>
+        <v>28112</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04370235179527024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02488871905950464</v>
+        <v>0.0270132674148009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06639492024021945</v>
+        <v>0.07079024830685403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1680,19 +1680,19 @@
         <v>8256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3875</v>
+        <v>3990</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14720</v>
+        <v>14648</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0285202798490772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.013387625088741</v>
+        <v>0.01378391762567285</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0508497584969024</v>
+        <v>0.05060095583149969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1701,19 +1701,19 @@
         <v>25611</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16962</v>
+        <v>16806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36531</v>
+        <v>37117</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0373014109229415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02470413690476746</v>
+        <v>0.02447774619741638</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05320570565041063</v>
+        <v>0.054058925630253</v>
       </c>
     </row>
     <row r="18">
@@ -1730,19 +1730,19 @@
         <v>14935</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8724</v>
+        <v>8432</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26764</v>
+        <v>25022</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03760905255629897</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02196886785567954</v>
+        <v>0.02123282379903638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0673946005863902</v>
+        <v>0.06300875696107801</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1751,19 +1751,19 @@
         <v>5876</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1997</v>
+        <v>2856</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11703</v>
+        <v>12843</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02029857524590983</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006898245945162309</v>
+        <v>0.009865190163021419</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04042712943345044</v>
+        <v>0.04436743002827324</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -1772,19 +1772,19 @@
         <v>20811</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12998</v>
+        <v>13339</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32576</v>
+        <v>31456</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03031075084041403</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01893111856857153</v>
+        <v>0.01942795174749097</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04744560540726918</v>
+        <v>0.0458138883265871</v>
       </c>
     </row>
     <row r="19">
@@ -1801,19 +1801,19 @@
         <v>78966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64253</v>
+        <v>63549</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97266</v>
+        <v>96378</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1988463995670354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1617972090901423</v>
+        <v>0.1600247008588863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2449274294539779</v>
+        <v>0.2426916759568054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -1822,19 +1822,19 @@
         <v>30635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20931</v>
+        <v>22281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43447</v>
+        <v>43454</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1058277081836311</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07230568041390625</v>
+        <v>0.07696779384118171</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.150088589761154</v>
+        <v>0.1501126460154689</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1843,19 +1843,19 @@
         <v>109601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91778</v>
+        <v>90878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128864</v>
+        <v>131313</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1596286204867652</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1336697155177328</v>
+        <v>0.1323596077708537</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1876840835415608</v>
+        <v>0.1912509828535867</v>
       </c>
     </row>
     <row r="20">
@@ -1872,19 +1872,19 @@
         <v>272778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252344</v>
+        <v>252014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289651</v>
+        <v>292444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6868860515725775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6354310220762689</v>
+        <v>0.6346000648971594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7293741385587997</v>
+        <v>0.7364076764205515</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>227</v>
@@ -1893,19 +1893,19 @@
         <v>238054</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223074</v>
+        <v>223426</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250163</v>
+        <v>249363</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8223533579409605</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7706054572151315</v>
+        <v>0.77182192846311</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8641840909369041</v>
+        <v>0.8614200565650377</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>487</v>
@@ -1914,19 +1914,19 @@
         <v>510832</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486934</v>
+        <v>487712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532972</v>
+        <v>533133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7440006681592217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7091951569795513</v>
+        <v>0.710327515474945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7762463540799097</v>
+        <v>0.7764815740572164</v>
       </c>
     </row>
     <row r="21">
@@ -2018,19 +2018,19 @@
         <v>30789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21711</v>
+        <v>21212</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43753</v>
+        <v>42922</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01637640700650971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01154792957441238</v>
+        <v>0.01128245344846478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02327161446169776</v>
+        <v>0.02282975304079278</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2039,19 +2039,19 @@
         <v>9600</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4865</v>
+        <v>4803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17457</v>
+        <v>17183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009467812692563323</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004798230518715039</v>
+        <v>0.004737004612665161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01721770902200483</v>
+        <v>0.01694756899591686</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2060,19 +2060,19 @@
         <v>40389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29020</v>
+        <v>29609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55025</v>
+        <v>56721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01395599024293792</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01002752920943755</v>
+        <v>0.01023094010477511</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01901317327849244</v>
+        <v>0.01959921871398768</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2089,19 @@
         <v>34819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23145</v>
+        <v>24272</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48125</v>
+        <v>47736</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01851944376908115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01231036069662566</v>
+        <v>0.01290973284598821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02559709315970671</v>
+        <v>0.02538988057756025</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2110,19 +2110,19 @@
         <v>16457</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9344</v>
+        <v>9422</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26989</v>
+        <v>27447</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01623080929749116</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009215384115897859</v>
+        <v>0.009292809888921028</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02661818414845605</v>
+        <v>0.02707019087465811</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -2131,19 +2131,19 @@
         <v>51275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>38334</v>
+        <v>37910</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>67705</v>
+        <v>67321</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01771762374767069</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01324581191088382</v>
+        <v>0.01309938553663701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02339483090945317</v>
+        <v>0.02326198983092249</v>
       </c>
     </row>
     <row r="24">
@@ -2160,19 +2160,19 @@
         <v>50451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36783</v>
+        <v>38877</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66993</v>
+        <v>65538</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02683437402216548</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01956427286287509</v>
+        <v>0.02067807162238722</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03563271685386514</v>
+        <v>0.03485880238657008</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2181,19 +2181,19 @@
         <v>9838</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4958</v>
+        <v>5016</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16981</v>
+        <v>17882</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009702583729965445</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004889966628170555</v>
+        <v>0.004947479865437619</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01674752125564451</v>
+        <v>0.01763641830198102</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -2202,19 +2202,19 @@
         <v>60289</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45830</v>
+        <v>46605</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75253</v>
+        <v>77243</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0208322742419642</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0158361393453177</v>
+        <v>0.01610377307481772</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02600273737222028</v>
+        <v>0.02669059936779434</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>281094</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>251352</v>
+        <v>252723</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>312374</v>
+        <v>314320</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.149509512499909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1336903191515455</v>
+        <v>0.134419777997574</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1661472021656188</v>
+        <v>0.1671822638213012</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2252,19 +2252,19 @@
         <v>78795</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64275</v>
+        <v>62281</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98363</v>
+        <v>97188</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07771355186531467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06339323637302649</v>
+        <v>0.06142634095962098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09701301656991447</v>
+        <v>0.09585392817558001</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>348</v>
@@ -2273,19 +2273,19 @@
         <v>359889</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>325681</v>
+        <v>324022</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>394779</v>
+        <v>396690</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1243558938649415</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1125357365839847</v>
+        <v>0.1119625188204826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1364117991760681</v>
+        <v>0.1370720631139309</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>1482953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1449074</v>
+        <v>1444132</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1521074</v>
+        <v>1516272</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7887602627023347</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7707407698356409</v>
+        <v>0.7681118887805821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8090361203796137</v>
+        <v>0.8064821558984938</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>860</v>
@@ -2323,19 +2323,19 @@
         <v>899228</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>877753</v>
+        <v>878369</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>917978</v>
+        <v>918846</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8868852424146654</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8657046286079376</v>
+        <v>0.8663123496556104</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.905377648148511</v>
+        <v>0.9062335305762321</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2273</v>
@@ -2344,19 +2344,19 @@
         <v>2382181</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2340833</v>
+        <v>2341418</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2421855</v>
+        <v>2421527</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8231382179024858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.808850888407487</v>
+        <v>0.8090530787774985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8368471361055791</v>
+        <v>0.8367338818772905</v>
       </c>
     </row>
     <row r="27">
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5952</v>
+        <v>6923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01064387594863309</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03252370578910616</v>
+        <v>0.0378274719088349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6638</v>
+        <v>6818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006084575382255628</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02073453481183286</v>
+        <v>0.0212956232914649</v>
       </c>
     </row>
     <row r="5">
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5401</v>
+        <v>8372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005927734458770384</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0295089974126165</v>
+        <v>0.04574517822011544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5459</v>
+        <v>5464</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003388591461836284</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0170519370190767</v>
+        <v>0.01706745262356187</v>
       </c>
     </row>
     <row r="6">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5758</v>
+        <v>6757</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01026999613496505</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03146250414690025</v>
+        <v>0.03692127269804431</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6726</v>
+        <v>6188</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01483353866295185</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04904436310949205</v>
+        <v>0.04512418243157684</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -2855,19 +2855,19 @@
         <v>3914</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>988</v>
+        <v>1044</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8897</v>
+        <v>9818</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01222478799208077</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003087094367658507</v>
+        <v>0.003260988688456586</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02778828996079499</v>
+        <v>0.03066493427954103</v>
       </c>
     </row>
     <row r="7">
@@ -2884,19 +2884,19 @@
         <v>20501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12792</v>
+        <v>12953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30226</v>
+        <v>29465</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1120188583029753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06989681450282111</v>
+        <v>0.07077561570039359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1651555537314378</v>
+        <v>0.160996571486734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2905,19 +2905,19 @@
         <v>11123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6001</v>
+        <v>6209</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19141</v>
+        <v>19042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08110401256377904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0437619772308964</v>
+        <v>0.04527159606355473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1395723095708396</v>
+        <v>0.1388488575264697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2926,19 +2926,19 @@
         <v>31624</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22238</v>
+        <v>21719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43368</v>
+        <v>42360</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09877649486615878</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0694604447366569</v>
+        <v>0.06783714262940028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.135457068586433</v>
+        <v>0.1323084175686718</v>
       </c>
     </row>
     <row r="8">
@@ -2955,19 +2955,19 @@
         <v>157604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>145783</v>
+        <v>147170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165759</v>
+        <v>165843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8611395351546562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7965499140736652</v>
+        <v>0.8041310252326759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9057004786252767</v>
+        <v>0.9061592457645697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -2976,19 +2976,19 @@
         <v>123982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115820</v>
+        <v>115718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>129880</v>
+        <v>129166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9040624487732691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8445411245452593</v>
+        <v>0.8438032099068338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9470659977076785</v>
+        <v>0.9418584974518002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>265</v>
@@ -2997,19 +2997,19 @@
         <v>281587</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>268682</v>
+        <v>269538</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>292308</v>
+        <v>292737</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8795255502976685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8392177147815287</v>
+        <v>0.841891839178334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9130119392478934</v>
+        <v>0.9143527983732452</v>
       </c>
     </row>
     <row r="9">
@@ -3101,19 +3101,19 @@
         <v>15739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8644</v>
+        <v>7854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26752</v>
+        <v>26121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01728583960969305</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009492917437490455</v>
+        <v>0.008626044769788982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02938091422188219</v>
+        <v>0.02868787044463571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7098</v>
+        <v>6879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003438188856443718</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01241023933339009</v>
+        <v>0.01202797406100661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3143,19 +3143,19 @@
         <v>17706</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9859</v>
+        <v>9830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29156</v>
+        <v>30449</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01194342646431389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006650362370255646</v>
+        <v>0.006631101945243721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01966717781650906</v>
+        <v>0.02053943363430715</v>
       </c>
     </row>
     <row r="11">
@@ -3172,19 +3172,19 @@
         <v>11379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5518</v>
+        <v>5995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21768</v>
+        <v>22455</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01249691084445755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006060170736123004</v>
+        <v>0.006584009785876102</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02390716642452273</v>
+        <v>0.02466189881391344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -3193,19 +3193,19 @@
         <v>7038</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3014</v>
+        <v>2942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15747</v>
+        <v>14917</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01230519098425032</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005269068927892451</v>
+        <v>0.005143481452153396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02753329632161839</v>
+        <v>0.02608269238192002</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -3214,19 +3214,19 @@
         <v>18416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10121</v>
+        <v>11358</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29116</v>
+        <v>32247</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01242294546797223</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006827268879084123</v>
+        <v>0.0076615217166022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0196401277483999</v>
+        <v>0.0217525472262358</v>
       </c>
     </row>
     <row r="12">
@@ -3243,19 +3243,19 @@
         <v>22721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14501</v>
+        <v>15373</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33688</v>
+        <v>35192</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02495378903520386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01592617953743962</v>
+        <v>0.01688387946902371</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03699824930528356</v>
+        <v>0.03865080589938619</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3264,19 +3264,19 @@
         <v>7723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3788</v>
+        <v>3007</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15475</v>
+        <v>16406</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01350355840909076</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006623725467199208</v>
+        <v>0.00525712318101975</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02705831745538959</v>
+        <v>0.02868568518553515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -3285,19 +3285,19 @@
         <v>30444</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20698</v>
+        <v>21081</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44727</v>
+        <v>44523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02053629875439101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01396221624534425</v>
+        <v>0.01422004655705379</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03017090829915526</v>
+        <v>0.03003357227497262</v>
       </c>
     </row>
     <row r="13">
@@ -3314,19 +3314,19 @@
         <v>156789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134614</v>
+        <v>133735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179722</v>
+        <v>181105</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1721971657634223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1478425699492299</v>
+        <v>0.1468772811477999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1973839468341828</v>
+        <v>0.1989020288047049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -3335,19 +3335,19 @@
         <v>47558</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33906</v>
+        <v>34776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62783</v>
+        <v>62799</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08315454963086985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05928322254625458</v>
+        <v>0.0608044513313017</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1097742129084742</v>
+        <v>0.1098020115088886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>193</v>
@@ -3356,19 +3356,19 @@
         <v>204348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177729</v>
+        <v>177651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>231351</v>
+        <v>231401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1378445920740638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1198888535050445</v>
+        <v>0.1198357967427856</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1560600866734043</v>
+        <v>0.1560938333906158</v>
       </c>
     </row>
     <row r="14">
@@ -3385,19 +3385,19 @@
         <v>703894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>679897</v>
+        <v>675823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>731956</v>
+        <v>729068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7730662947472233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7467111022651093</v>
+        <v>0.7422371015242315</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8038858793264159</v>
+        <v>0.8007143292956556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>476</v>
@@ -3406,19 +3406,19 @@
         <v>507642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>490144</v>
+        <v>489320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>522181</v>
+        <v>522516</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8875985121193454</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8570025488947451</v>
+        <v>0.8555617088638181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9130193972419963</v>
+        <v>0.913603802242292</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1143</v>
@@ -3427,19 +3427,19 @@
         <v>1211537</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1180286</v>
+        <v>1181404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1241924</v>
+        <v>1240644</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8172527372392591</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7961718605678239</v>
+        <v>0.796926279376492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8377503616887055</v>
+        <v>0.8368871646336301</v>
       </c>
     </row>
     <row r="15">
@@ -3531,19 +3531,19 @@
         <v>12284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5217</v>
+        <v>5831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26090</v>
+        <v>24704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03895748987011418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01654452020231667</v>
+        <v>0.01849266401883299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0827414821359027</v>
+        <v>0.07834452526094432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3552,19 +3552,19 @@
         <v>2942</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8446</v>
+        <v>7879</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01252588534320138</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004007777612962648</v>
+        <v>0.00396648685887196</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0359542620120956</v>
+        <v>0.033542869560179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3573,19 +3573,19 @@
         <v>15226</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8041</v>
+        <v>7839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26495</v>
+        <v>27171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02767339715014464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01461502972800873</v>
+        <v>0.01424659112702108</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04815439787498186</v>
+        <v>0.04938221955282744</v>
       </c>
     </row>
     <row r="17">
@@ -3602,19 +3602,19 @@
         <v>11641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5743</v>
+        <v>5861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20910</v>
+        <v>21511</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03691708974442025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0182139770822656</v>
+        <v>0.01858801749242724</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06631284121913676</v>
+        <v>0.06821878457750584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3623,19 +3623,19 @@
         <v>3076</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8524</v>
+        <v>8464</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01309439270355931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004185209774715858</v>
+        <v>0.004215552703994703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0362867060218935</v>
+        <v>0.03603113105384985</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -3644,19 +3644,19 @@
         <v>14717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8807</v>
+        <v>7883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24338</v>
+        <v>23305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02674678313382053</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01600623644575245</v>
+        <v>0.01432632477464931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0442331126220698</v>
+        <v>0.04235661634218058</v>
       </c>
     </row>
     <row r="18">
@@ -3673,19 +3673,19 @@
         <v>14355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6983</v>
+        <v>8042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23199</v>
+        <v>24512</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04552633821995911</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02214668884283231</v>
+        <v>0.02550395060614408</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07357275229399347</v>
+        <v>0.07773807094085351</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5364</v>
+        <v>6083</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004531281135387053</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02283552292689603</v>
+        <v>0.0258970320499734</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -3715,19 +3715,19 @@
         <v>15420</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8103</v>
+        <v>9076</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25976</v>
+        <v>25882</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02802486475731928</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01472619578169862</v>
+        <v>0.01649496687142612</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04721136649035881</v>
+        <v>0.04703913178704224</v>
       </c>
     </row>
     <row r="19">
@@ -3744,19 +3744,19 @@
         <v>83070</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66997</v>
+        <v>66495</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99522</v>
+        <v>100292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2634470982708037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2124738380618781</v>
+        <v>0.2108809136843951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3156224272923859</v>
+        <v>0.3180654045056636</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -3765,19 +3765,19 @@
         <v>30261</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19412</v>
+        <v>20528</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44216</v>
+        <v>43696</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1288271061533516</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08264071884598662</v>
+        <v>0.08738964014277595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1882340550133602</v>
+        <v>0.1860223086039769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>102</v>
@@ -3786,19 +3786,19 @@
         <v>113331</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94812</v>
+        <v>96082</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136402</v>
+        <v>137126</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2059755788453304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1723176369964359</v>
+        <v>0.1746259405233707</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2479051836744837</v>
+        <v>0.2492218366273954</v>
       </c>
     </row>
     <row r="20">
@@ -3815,19 +3815,19 @@
         <v>193970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176213</v>
+        <v>175594</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213046</v>
+        <v>213417</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6151519838947028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5588373561667535</v>
+        <v>0.5568764101368932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6756492787121113</v>
+        <v>0.6768282078204089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>179</v>
@@ -3836,19 +3836,19 @@
         <v>197553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183044</v>
+        <v>182952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208990</v>
+        <v>207796</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8410213346645007</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7792505938452691</v>
+        <v>0.7788619043762987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.889708050901412</v>
+        <v>0.8846257798612613</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>353</v>
@@ -3857,19 +3857,19 @@
         <v>391523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>366649</v>
+        <v>367592</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413872</v>
+        <v>413517</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7115793761133852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6663712789563931</v>
+        <v>0.6680847313397916</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7521976090568506</v>
+        <v>0.7515528262801681</v>
       </c>
     </row>
     <row r="21">
@@ -3961,19 +3961,19 @@
         <v>29971</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19108</v>
+        <v>19706</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44587</v>
+        <v>47853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02127339455583504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01356279767540398</v>
+        <v>0.01398715771040478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03164768689271163</v>
+        <v>0.03396594363431297</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -3982,19 +3982,19 @@
         <v>4909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1940</v>
+        <v>1925</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10932</v>
+        <v>10853</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005200077117737026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002054983020112519</v>
+        <v>0.002039065100982524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01158139523733116</v>
+        <v>0.01149675176167118</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -4003,19 +4003,19 @@
         <v>34880</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23323</v>
+        <v>23045</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49516</v>
+        <v>51390</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01482470405581047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009912897983367515</v>
+        <v>0.009794611748833008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0210453437523953</v>
+        <v>0.02184196388351485</v>
       </c>
     </row>
     <row r="23">
@@ -4032,19 +4032,19 @@
         <v>24104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15211</v>
+        <v>15150</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36360</v>
+        <v>36489</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01710907551156163</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01079643869561146</v>
+        <v>0.01075332558443547</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02580776771002765</v>
+        <v>0.02589936170768066</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -4053,19 +4053,19 @@
         <v>10114</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4777</v>
+        <v>5033</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18179</v>
+        <v>20663</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01071387527047402</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005060298699050014</v>
+        <v>0.005331241383862881</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01925832554314917</v>
+        <v>0.02188931842233877</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -4074,19 +4074,19 @@
         <v>34218</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23763</v>
+        <v>23272</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>48631</v>
+        <v>48236</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01454329111768752</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01009971986122692</v>
+        <v>0.009891028639607844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02066915046244719</v>
+        <v>0.02050136014298484</v>
       </c>
     </row>
     <row r="24">
@@ -4103,19 +4103,19 @@
         <v>38956</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28844</v>
+        <v>28158</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53614</v>
+        <v>52666</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02765067694071113</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02047304008866935</v>
+        <v>0.01998622693767888</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03805517727536731</v>
+        <v>0.03738201874641642</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -4124,19 +4124,19 @@
         <v>10822</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5781</v>
+        <v>5024</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20050</v>
+        <v>19025</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01146411007181917</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00612408104260902</v>
+        <v>0.005322048733442615</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02124041274615688</v>
+        <v>0.02015428462264307</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>47</v>
@@ -4145,19 +4145,19 @@
         <v>49778</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37415</v>
+        <v>36946</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65639</v>
+        <v>66264</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02115655023678486</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01590221547612681</v>
+        <v>0.01570280606001344</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02789779325026978</v>
+        <v>0.02816378769208095</v>
       </c>
     </row>
     <row r="25">
@@ -4174,19 +4174,19 @@
         <v>260361</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>230642</v>
+        <v>233926</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>290698</v>
+        <v>291980</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1848025449508456</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1637079808571625</v>
+        <v>0.1660394221042409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2063356066666966</v>
+        <v>0.2072451815131896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -4195,19 +4195,19 @@
         <v>88942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68608</v>
+        <v>71869</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109184</v>
+        <v>108686</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09422184030235034</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07268076417036534</v>
+        <v>0.07613555485045206</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1156649579976999</v>
+        <v>0.1151372782010661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>325</v>
@@ -4216,19 +4216,19 @@
         <v>349303</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>313910</v>
+        <v>315160</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>387825</v>
+        <v>386890</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1484611405206844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1334181400836987</v>
+        <v>0.1339497865646159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1648336412775512</v>
+        <v>0.1644363149682335</v>
       </c>
     </row>
     <row r="26">
@@ -4245,19 +4245,19 @@
         <v>1055468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1023672</v>
+        <v>1020893</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1087139</v>
+        <v>1085856</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7491643080410466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7265956635842307</v>
+        <v>0.7246226387307155</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7716440029377716</v>
+        <v>0.7707330276706074</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>770</v>
@@ -4266,19 +4266,19 @@
         <v>829179</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806209</v>
+        <v>806197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>851404</v>
+        <v>848507</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8784000972376195</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8540666504510734</v>
+        <v>0.8540539160131241</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9019447030830638</v>
+        <v>0.8988758134323189</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1761</v>
@@ -4287,19 +4287,19 @@
         <v>1884647</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1843122</v>
+        <v>1842111</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1924757</v>
+        <v>1923077</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8010143140690328</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7833657270311358</v>
+        <v>0.7829359248501113</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.818062003399177</v>
+        <v>0.8173481996199928</v>
       </c>
     </row>
     <row r="27">
@@ -4724,19 +4724,19 @@
         <v>5043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1931</v>
+        <v>1952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11095</v>
+        <v>11098</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03650165594607795</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01397489228802135</v>
+        <v>0.01413025348064153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08030965886694341</v>
+        <v>0.08033579111787327</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5548</v>
+        <v>4994</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01632013969160114</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08141871777829131</v>
+        <v>0.07328350430377886</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -4766,19 +4766,19 @@
         <v>6155</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2165</v>
+        <v>2111</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13225</v>
+        <v>12376</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02983515687470295</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01049427627222784</v>
+        <v>0.01023482852530655</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06410909407743427</v>
+        <v>0.0599918463528623</v>
       </c>
     </row>
     <row r="7">
@@ -4795,19 +4795,19 @@
         <v>17192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10262</v>
+        <v>10281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27002</v>
+        <v>26067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1244449612861458</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07428575061953012</v>
+        <v>0.07441783327186685</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1954571416458964</v>
+        <v>0.1886863082040635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7346</v>
+        <v>6773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03006406996708348</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1078035055951907</v>
+        <v>0.09939141804974579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4837,19 +4837,19 @@
         <v>19240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11601</v>
+        <v>12323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30060</v>
+        <v>30688</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09326840763178382</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05623512285364152</v>
+        <v>0.05973783294528383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1457171462757879</v>
+        <v>0.148760933177031</v>
       </c>
     </row>
     <row r="8">
@@ -4866,19 +4866,19 @@
         <v>115914</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105766</v>
+        <v>105344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123487</v>
+        <v>124034</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8390533827677763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.765599738193926</v>
+        <v>0.7625451559169187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8938758096452565</v>
+        <v>0.8978369535921185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -4887,19 +4887,19 @@
         <v>64983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59517</v>
+        <v>59669</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67263</v>
+        <v>67254</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9536157903413154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8733976119210906</v>
+        <v>0.8756332590406937</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.987064452539497</v>
+        <v>0.9869461518620294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -4908,19 +4908,19 @@
         <v>180896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>169963</v>
+        <v>169739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>189946</v>
+        <v>188850</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8768964354935133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8239013588159271</v>
+        <v>0.8228115552565497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9207682029595784</v>
+        <v>0.9154545362779118</v>
       </c>
     </row>
     <row r="9">
@@ -5012,19 +5012,19 @@
         <v>6953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2861</v>
+        <v>2725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14225</v>
+        <v>14676</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007589724379585216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003122925786645161</v>
+        <v>0.002974143271064877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01552796184404197</v>
+        <v>0.01602032747466796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5033,19 +5033,19 @@
         <v>5427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1877</v>
+        <v>1886</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12283</v>
+        <v>12574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008383096713917492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00289903998658565</v>
+        <v>0.002913631783189201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01897355906953296</v>
+        <v>0.01942324791290416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5054,19 +5054,19 @@
         <v>12380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6607</v>
+        <v>6489</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21653</v>
+        <v>21650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007918221558056819</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004226006970570397</v>
+        <v>0.004150486838298193</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01384935854761335</v>
+        <v>0.01384732132146198</v>
       </c>
     </row>
     <row r="11">
@@ -5083,19 +5083,19 @@
         <v>10980</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4829</v>
+        <v>4795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21156</v>
+        <v>19952</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01198593699702511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005270815968310943</v>
+        <v>0.005234077149390231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02309298706496461</v>
+        <v>0.02177873943519229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5527</v>
+        <v>4453</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001367306446549822</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008538227996638718</v>
+        <v>0.006879356864018121</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -5125,19 +5125,19 @@
         <v>11866</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6204</v>
+        <v>5992</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22066</v>
+        <v>22482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00758927476906974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003967794899432632</v>
+        <v>0.003832450166217325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01411318847046987</v>
+        <v>0.01437935647763967</v>
       </c>
     </row>
     <row r="12">
@@ -5154,19 +5154,19 @@
         <v>19777</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11471</v>
+        <v>12039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30207</v>
+        <v>31186</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.021588405797086</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01252141693331747</v>
+        <v>0.01314108707350782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03297248025620465</v>
+        <v>0.03404157271413609</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -5175,19 +5175,19 @@
         <v>7770</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3067</v>
+        <v>3162</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15640</v>
+        <v>15939</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01200327901878743</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004737679368572416</v>
+        <v>0.004884356705381193</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02415959647220827</v>
+        <v>0.02462204260674208</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -5196,19 +5196,19 @@
         <v>27548</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17810</v>
+        <v>17510</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42321</v>
+        <v>40241</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01761966758211697</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01139103020601286</v>
+        <v>0.01119965135637493</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02706858230990726</v>
+        <v>0.02573795775525048</v>
       </c>
     </row>
     <row r="13">
@@ -5225,19 +5225,19 @@
         <v>98975</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80893</v>
+        <v>82104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119426</v>
+        <v>120338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1080375271868897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0883003028278706</v>
+        <v>0.08962184028918996</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.13036168341335</v>
+        <v>0.131356438403523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -5246,19 +5246,19 @@
         <v>41556</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28619</v>
+        <v>29131</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55946</v>
+        <v>56287</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06419236309446602</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04420841168979915</v>
+        <v>0.04499970001491883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08642247524192148</v>
+        <v>0.08694927926051395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -5267,19 +5267,19 @@
         <v>140530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119103</v>
+        <v>119149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166085</v>
+        <v>165946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08988336164479581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07617812908070776</v>
+        <v>0.07620786709178025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1062282409980823</v>
+        <v>0.1061392208371152</v>
       </c>
     </row>
     <row r="14">
@@ -5296,19 +5296,19 @@
         <v>779429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>756012</v>
+        <v>754603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>801299</v>
+        <v>799963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8507984056394139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8252365381148055</v>
+        <v>0.823699131128718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8746712907662337</v>
+        <v>0.8732122488944304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>582</v>
@@ -5317,19 +5317,19 @@
         <v>591721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>575809</v>
+        <v>575192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>605982</v>
+        <v>607123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9140539547262793</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8894738583202372</v>
+        <v>0.8885214167758936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9360833449675189</v>
+        <v>0.9378459770861942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1315</v>
@@ -5338,19 +5338,19 @@
         <v>1371151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1340676</v>
+        <v>1341398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1395922</v>
+        <v>1395475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8769894744459606</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8574972492099188</v>
+        <v>0.8579591958459891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8928328934912918</v>
+        <v>0.8925468441293872</v>
       </c>
     </row>
     <row r="15">
@@ -5442,19 +5442,19 @@
         <v>11141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5754</v>
+        <v>5679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20100</v>
+        <v>19714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03221100765872095</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01663744930332689</v>
+        <v>0.01641858065997089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05811368814355599</v>
+        <v>0.05699730060276915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6271</v>
+        <v>5479</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005931710850938169</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02051831024898534</v>
+        <v>0.01792814631386637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5484,19 +5484,19 @@
         <v>12954</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7204</v>
+        <v>6896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21341</v>
+        <v>23266</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01988344655325034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01105806433043896</v>
+        <v>0.01058510395847554</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03275730256263806</v>
+        <v>0.03571266098950102</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>7914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3555</v>
+        <v>3168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15628</v>
+        <v>15534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02288091732806238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01027966883640883</v>
+        <v>0.009159498034094146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04518546534338629</v>
+        <v>0.04491156184798811</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5534,19 +5534,19 @@
         <v>4731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10718</v>
+        <v>10496</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01548135338862303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006014041400422237</v>
+        <v>0.006000231060800574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03507053179323129</v>
+        <v>0.03434449331993093</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -5555,19 +5555,19 @@
         <v>12645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6704</v>
+        <v>6911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21525</v>
+        <v>21278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01940979794140282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01029021407873568</v>
+        <v>0.01060807546052081</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03304026500305026</v>
+        <v>0.03266022401263954</v>
       </c>
     </row>
     <row r="18">
@@ -5584,19 +5584,19 @@
         <v>18839</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11252</v>
+        <v>11306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29428</v>
+        <v>28089</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05446732233224244</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03253176607997941</v>
+        <v>0.03268898421746574</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08508247804066492</v>
+        <v>0.08121296459885236</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -5605,19 +5605,19 @@
         <v>8181</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3734</v>
+        <v>3281</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16567</v>
+        <v>15567</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02676957929588931</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0122167789058511</v>
+        <v>0.0107354844035515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05420987985058094</v>
+        <v>0.05093735030684787</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -5626,19 +5626,19 @@
         <v>27020</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18236</v>
+        <v>17102</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39284</v>
+        <v>39799</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04147437117903102</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02799086419486407</v>
+        <v>0.02625172455173924</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06030018619057292</v>
+        <v>0.06108946311235353</v>
       </c>
     </row>
     <row r="19">
@@ -5655,19 +5655,19 @@
         <v>56453</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43182</v>
+        <v>42802</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71263</v>
+        <v>71664</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1632176628883507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1248491862793946</v>
+        <v>0.1237515371581299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2060375124364213</v>
+        <v>0.2071978924574929</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -5676,19 +5676,19 @@
         <v>29262</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19536</v>
+        <v>20120</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40025</v>
+        <v>41305</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09575107535865475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06392656245705129</v>
+        <v>0.06583475793672082</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1309695909167355</v>
+        <v>0.1351574944149853</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -5697,19 +5697,19 @@
         <v>85715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68960</v>
+        <v>69310</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103661</v>
+        <v>104540</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1315692330831972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1058513108469538</v>
+        <v>0.1063888554884866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.159115667218044</v>
+        <v>0.1604656217052917</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         <v>251527</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233046</v>
+        <v>233091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266667</v>
+        <v>267365</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7272230897926235</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6737917493619121</v>
+        <v>0.6739220204454149</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7709973351125676</v>
+        <v>0.7730139316025899</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -5747,19 +5747,19 @@
         <v>261621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248718</v>
+        <v>247953</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273175</v>
+        <v>273489</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8560662811058948</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8138470769874696</v>
+        <v>0.8113439336406802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8938727526824435</v>
+        <v>0.8949019191801639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>486</v>
@@ -5768,19 +5768,19 @@
         <v>513148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491684</v>
+        <v>491350</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>535443</v>
+        <v>533350</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7876631512431186</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7547173658413491</v>
+        <v>0.7542048552017739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.82188542209718</v>
+        <v>0.8186728260452923</v>
       </c>
     </row>
     <row r="21">
@@ -5872,19 +5872,19 @@
         <v>18094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9155</v>
+        <v>9988</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28008</v>
+        <v>28007</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01292301008384454</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006538833346857797</v>
+        <v>0.007133419728538347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02000392506897011</v>
+        <v>0.02000314301842529</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5893,19 +5893,19 @@
         <v>7240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2762</v>
+        <v>2845</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14562</v>
+        <v>14411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007089978320236935</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002704945435755245</v>
+        <v>0.002786291904270139</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01426073702077565</v>
+        <v>0.0141135274685442</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -5914,19 +5914,19 @@
         <v>25334</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16491</v>
+        <v>16499</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39551</v>
+        <v>37876</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01046304852306019</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006810931443532174</v>
+        <v>0.006814432212298482</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01633479020480237</v>
+        <v>0.01564311563097807</v>
       </c>
     </row>
     <row r="23">
@@ -5943,19 +5943,19 @@
         <v>18894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10669</v>
+        <v>10595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28811</v>
+        <v>29700</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0134946803424205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007620301281245934</v>
+        <v>0.007566843703065768</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02057705187024689</v>
+        <v>0.0212124171138109</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -5964,19 +5964,19 @@
         <v>5616</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2728</v>
+        <v>1921</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12400</v>
+        <v>12103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005500250523959583</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002671544370653169</v>
+        <v>0.001881204405934882</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01214341151225012</v>
+        <v>0.01185279926923524</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -5985,19 +5985,19 @@
         <v>24511</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15538</v>
+        <v>15478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36502</v>
+        <v>37232</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01012319346376186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006417283499585042</v>
+        <v>0.006392420040113777</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01507570390706197</v>
+        <v>0.01537731296579884</v>
       </c>
     </row>
     <row r="24">
@@ -6014,19 +6014,19 @@
         <v>43659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32145</v>
+        <v>31675</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59977</v>
+        <v>58904</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03118186619539954</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02295827815930193</v>
+        <v>0.02262256370592294</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04283667010443773</v>
+        <v>0.04207003738845737</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -6035,19 +6035,19 @@
         <v>17064</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9117</v>
+        <v>10360</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26974</v>
+        <v>28477</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01671076712357812</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008928998176567074</v>
+        <v>0.01014553140411058</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0264162489843404</v>
+        <v>0.02788846494306325</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -6056,19 +6056,19 @@
         <v>60722</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45004</v>
+        <v>46774</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77690</v>
+        <v>78194</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02507897684014494</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01858709389272454</v>
+        <v>0.01931832036545156</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0320867833703254</v>
+        <v>0.03229488808874174</v>
       </c>
     </row>
     <row r="25">
@@ -6085,19 +6085,19 @@
         <v>172619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>148881</v>
+        <v>148727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>201456</v>
+        <v>199406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.123287437938558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1063334052197998</v>
+        <v>0.1062231643112972</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1438831769638934</v>
+        <v>0.1424187009390512</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -6106,19 +6106,19 @@
         <v>72867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57882</v>
+        <v>56139</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91775</v>
+        <v>89592</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07136002342886655</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05668567299002415</v>
+        <v>0.05497864500775564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08987763668773376</v>
+        <v>0.08773999170446375</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>227</v>
@@ -6127,19 +6127,19 @@
         <v>245486</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>215544</v>
+        <v>216569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275465</v>
+        <v>275276</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1013881154555698</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08902173313681928</v>
+        <v>0.08944535982385914</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1137699118362347</v>
+        <v>0.1136918529514692</v>
       </c>
     </row>
     <row r="26">
@@ -6156,19 +6156,19 @@
         <v>1146870</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1117106</v>
+        <v>1114327</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1174938</v>
+        <v>1178440</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8191130054397774</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7978556843178488</v>
+        <v>0.7958707764205523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8391595627219888</v>
+        <v>0.8416613957923677</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>901</v>
@@ -6177,19 +6177,19 @@
         <v>918325</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>896962</v>
+        <v>897758</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>935409</v>
+        <v>937008</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8993389806033588</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8784180924719552</v>
+        <v>0.8791974415235833</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9160700430382631</v>
+        <v>0.9176357114149958</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1974</v>
@@ -6198,19 +6198,19 @@
         <v>2065195</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2027639</v>
+        <v>2029181</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2100977</v>
+        <v>2100901</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8529466657174632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8374358548397763</v>
+        <v>0.8380728336123872</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.867725218548846</v>
+        <v>0.8676936476413781</v>
       </c>
     </row>
     <row r="27">
@@ -6588,19 +6588,19 @@
         <v>5597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2190</v>
+        <v>2223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12598</v>
+        <v>12337</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03473501475720987</v>
+        <v>0.03473501475720986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01358875360362889</v>
+        <v>0.01379575215274193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07817973018592148</v>
+        <v>0.0765649475323831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6622,19 +6622,19 @@
         <v>5597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2103</v>
+        <v>1996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12604</v>
+        <v>11622</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02270528845517959</v>
+        <v>0.02270528845517958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008529292027835101</v>
+        <v>0.008097136996074205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0511299470218043</v>
+        <v>0.04714779745614835</v>
       </c>
     </row>
     <row r="6">
@@ -6654,16 +6654,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4563</v>
+        <v>4630</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.008606878534803465</v>
+        <v>0.008606878534803464</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02831828416666683</v>
+        <v>0.02873345622222587</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -6688,16 +6688,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4851</v>
+        <v>4879</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005626071017886724</v>
+        <v>0.005626071017886723</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01967876105578073</v>
+        <v>0.01979390810783844</v>
       </c>
     </row>
     <row r="7">
@@ -6714,19 +6714,19 @@
         <v>6496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2244</v>
+        <v>2331</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14933</v>
+        <v>17022</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04031603411459962</v>
+        <v>0.04031603411459961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01392704113368628</v>
+        <v>0.0144631455165745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09267060655005967</v>
+        <v>0.1056372359439915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -6735,19 +6735,19 @@
         <v>4817</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1984</v>
+        <v>2066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9459</v>
+        <v>10383</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05641944236858112</v>
+        <v>0.0564194423685811</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02324227059491969</v>
+        <v>0.02419503271511019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1107915227774695</v>
+        <v>0.121622488224005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -6756,19 +6756,19 @@
         <v>11313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5884</v>
+        <v>6133</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21130</v>
+        <v>20275</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04589310368486784</v>
+        <v>0.04589310368486783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02386752285350397</v>
+        <v>0.02487993561676671</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08571841408138145</v>
+        <v>0.08224991433549696</v>
       </c>
     </row>
     <row r="8">
@@ -6785,19 +6785,19 @@
         <v>147656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137356</v>
+        <v>137616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>153722</v>
+        <v>154134</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9163420725933871</v>
+        <v>0.916342072593387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8524223911794547</v>
+        <v>0.8540346169550136</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9539867588781322</v>
+        <v>0.9565481611800731</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>109</v>
@@ -6806,19 +6806,19 @@
         <v>80556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75914</v>
+        <v>74990</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83389</v>
+        <v>83307</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.943580557631419</v>
+        <v>0.9435805576314187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8892084772225305</v>
+        <v>0.8783775117759958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9767577294050803</v>
+        <v>0.9758049672848901</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -6827,19 +6827,19 @@
         <v>228211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>216790</v>
+        <v>217437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>234823</v>
+        <v>235533</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9257755368420659</v>
+        <v>0.9257755368420657</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8794432220999477</v>
+        <v>0.8820678695777826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9525987420839066</v>
+        <v>0.9554780108215605</v>
       </c>
     </row>
     <row r="9">
@@ -6931,19 +6931,19 @@
         <v>20028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12320</v>
+        <v>11779</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32759</v>
+        <v>31104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01595329295662466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009813487303837893</v>
+        <v>0.009382658104322098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02609390339134657</v>
+        <v>0.02477539662787988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -6955,16 +6955,16 @@
         <v>643</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6120</v>
+        <v>6773</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.002886462738031061</v>
+        <v>0.00288646273803106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0006897398488164285</v>
+        <v>0.0006895737443798436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006564063879698286</v>
+        <v>0.007264430436374576</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -6973,19 +6973,19 @@
         <v>22719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14483</v>
+        <v>14379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35902</v>
+        <v>34366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01038482002583289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006620099842586928</v>
+        <v>0.006572646905068489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01641056297501987</v>
+        <v>0.0157085407722363</v>
       </c>
     </row>
     <row r="11">
@@ -7002,19 +7002,19 @@
         <v>13955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8037</v>
+        <v>7403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23541</v>
+        <v>24761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01111574388116178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006401483730673173</v>
+        <v>0.005896617649898307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01875172180523796</v>
+        <v>0.01972325750269847</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -7023,19 +7023,19 @@
         <v>6259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3096</v>
+        <v>2817</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11549</v>
+        <v>10940</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006713343268020721</v>
+        <v>0.006713343268020719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00332036461177436</v>
+        <v>0.003021907403936056</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01238751123395059</v>
+        <v>0.01173427116112519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -7044,19 +7044,19 @@
         <v>20214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12670</v>
+        <v>13288</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30812</v>
+        <v>30981</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009239646294013703</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005791354069322406</v>
+        <v>0.006073899891390414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0140839683542093</v>
+        <v>0.01416114287185625</v>
       </c>
     </row>
     <row r="12">
@@ -7073,19 +7073,19 @@
         <v>37002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25474</v>
+        <v>23692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57241</v>
+        <v>54279</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02947418927921084</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02029085680004643</v>
+        <v>0.01887214560361244</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04559500924115679</v>
+        <v>0.04323554254639623</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -7094,19 +7094,19 @@
         <v>10040</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5768</v>
+        <v>5529</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16956</v>
+        <v>16707</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01076884348713605</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006187274281255096</v>
+        <v>0.005930896736696668</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01818667021197123</v>
+        <v>0.01791994009669729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -7115,19 +7115,19 @@
         <v>47042</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35065</v>
+        <v>33501</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66041</v>
+        <v>66103</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02150284428109094</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01602792893197355</v>
+        <v>0.0153130787086972</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03018714101315148</v>
+        <v>0.03021528132779606</v>
       </c>
     </row>
     <row r="13">
@@ -7144,19 +7144,19 @@
         <v>116104</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95307</v>
+        <v>96082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140997</v>
+        <v>142275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09248209719056374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0759163306777188</v>
+        <v>0.07653382607889601</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1123105980388441</v>
+        <v>0.113328501490246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -7165,19 +7165,19 @@
         <v>48205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36881</v>
+        <v>37423</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59395</v>
+        <v>61059</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0517050647336185</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03955895155782655</v>
+        <v>0.04014071794464523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06370723392976825</v>
+        <v>0.06549194239357513</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -7186,19 +7186,19 @@
         <v>164309</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139589</v>
+        <v>140241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189890</v>
+        <v>189600</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07510482989344903</v>
+        <v>0.07510482989344902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06380546806446585</v>
+        <v>0.06410339706442769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08679770129697689</v>
+        <v>0.08666538707806082</v>
       </c>
     </row>
     <row r="14">
@@ -7215,19 +7215,19 @@
         <v>1068331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1037847</v>
+        <v>1037817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1094120</v>
+        <v>1097601</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8509746766924391</v>
+        <v>0.850974676692439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.826693200686469</v>
+        <v>0.8266690585225088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8715172656407225</v>
+        <v>0.8742895688486475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1146</v>
@@ -7236,19 +7236,19 @@
         <v>865112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>852797</v>
+        <v>850554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>878877</v>
+        <v>877016</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9279262857731937</v>
+        <v>0.9279262857731938</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9147168610438002</v>
+        <v>0.9123112777551849</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9426902807466696</v>
+        <v>0.9406949148119556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2051</v>
@@ -7257,19 +7257,19 @@
         <v>1933443</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1898808</v>
+        <v>1903363</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1963450</v>
+        <v>1963678</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8837678595056133</v>
+        <v>0.8837678595056134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8679363107216523</v>
+        <v>0.8700185417176955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8974841808657102</v>
+        <v>0.8975881168922656</v>
       </c>
     </row>
     <row r="15">
@@ -7361,19 +7361,19 @@
         <v>20708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12692</v>
+        <v>12698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32604</v>
+        <v>32391</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04363719332620937</v>
+        <v>0.04363719332620936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02674434824553273</v>
+        <v>0.02675773676128279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06870477267994826</v>
+        <v>0.06825505789996214</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -7382,19 +7382,19 @@
         <v>7316</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3893</v>
+        <v>3509</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12734</v>
+        <v>12951</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01541846643865515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008204496906959787</v>
+        <v>0.00739515363643164</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02683720378153805</v>
+        <v>0.02729615828693928</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -7403,19 +7403,19 @@
         <v>28024</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19280</v>
+        <v>18690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40118</v>
+        <v>40531</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02952898489475981</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02031510517592338</v>
+        <v>0.01969339792402356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04227258873405312</v>
+        <v>0.04270798915066024</v>
       </c>
     </row>
     <row r="17">
@@ -7432,19 +7432,19 @@
         <v>11308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5313</v>
+        <v>5617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20914</v>
+        <v>21850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02382897118906661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01119522063856885</v>
+        <v>0.01183638278146334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04407009273063563</v>
+        <v>0.04604273771174923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -7453,19 +7453,19 @@
         <v>11387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6839</v>
+        <v>6766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19634</v>
+        <v>19126</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02399890429909643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01441420105690304</v>
+        <v>0.01425935947611027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04137963947859509</v>
+        <v>0.04030867510434213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -7474,19 +7474,19 @@
         <v>22695</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14421</v>
+        <v>15095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34110</v>
+        <v>32563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02391393078859988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01519516972768934</v>
+        <v>0.0159051661851794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03594209453848914</v>
+        <v>0.03431130015875989</v>
       </c>
     </row>
     <row r="18">
@@ -7503,19 +7503,19 @@
         <v>23546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14792</v>
+        <v>14628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35406</v>
+        <v>34907</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04961608837275677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03116919197878148</v>
+        <v>0.03082432210228171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07460891446438089</v>
+        <v>0.07355682698912194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -7524,19 +7524,19 @@
         <v>10811</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6434</v>
+        <v>6352</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17111</v>
+        <v>17176</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0227844716302995</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01355994919796373</v>
+        <v>0.01338664273257954</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0360629275460919</v>
+        <v>0.03619929175735132</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -7545,19 +7545,19 @@
         <v>34356</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24676</v>
+        <v>24757</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46355</v>
+        <v>46651</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0362013782384624</v>
+        <v>0.03620137823846239</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02600085173882959</v>
+        <v>0.02608631391251686</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04884450043456665</v>
+        <v>0.049156414490126</v>
       </c>
     </row>
     <row r="19">
@@ -7574,19 +7574,19 @@
         <v>69090</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54092</v>
+        <v>53293</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89749</v>
+        <v>87972</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1455881379967704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1139835157061672</v>
+        <v>0.1122996993629791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1891210385443065</v>
+        <v>0.18537726915362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -7595,19 +7595,19 @@
         <v>44064</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34585</v>
+        <v>34972</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56540</v>
+        <v>56821</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09286810017966181</v>
+        <v>0.09286810017966179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07289151495015883</v>
+        <v>0.07370542638494068</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1191631038825426</v>
+        <v>0.1197553798487689</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -7616,19 +7616,19 @@
         <v>113154</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94537</v>
+        <v>94686</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137017</v>
+        <v>134665</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.119230276956423</v>
+        <v>0.1192302769564229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09961398242542632</v>
+        <v>0.09977073275870287</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1443753620031879</v>
+        <v>0.1418964737346915</v>
       </c>
     </row>
     <row r="20">
@@ -7645,19 +7645,19 @@
         <v>349905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>325222</v>
+        <v>324555</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>371250</v>
+        <v>368911</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7373296091151968</v>
+        <v>0.7373296091151967</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6853161763667563</v>
+        <v>0.6839113391397504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7823083963187476</v>
+        <v>0.7773803697879333</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>534</v>
@@ -7666,19 +7666,19 @@
         <v>400902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>385676</v>
+        <v>384485</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>414064</v>
+        <v>412721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8449300574522871</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8128406258190246</v>
+        <v>0.8103309289800154</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8726706288508644</v>
+        <v>0.869840265979413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>838</v>
@@ -7687,19 +7687,19 @@
         <v>750807</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>722608</v>
+        <v>723730</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>774116</v>
+        <v>774497</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.791125429121755</v>
+        <v>0.7911254291217551</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7614125618365467</v>
+        <v>0.7625946240798082</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8156861977263584</v>
+        <v>0.8160876701586579</v>
       </c>
     </row>
     <row r="21">
@@ -7791,19 +7791,19 @@
         <v>40736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29667</v>
+        <v>28936</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57205</v>
+        <v>57111</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02154098141575723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01568748639362494</v>
+        <v>0.01530119902846692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03024915055107346</v>
+        <v>0.03019945035758785</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -7812,19 +7812,19 @@
         <v>10007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5702</v>
+        <v>5982</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17255</v>
+        <v>16723</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.006706263432422969</v>
+        <v>0.006706263432422966</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003821056168403237</v>
+        <v>0.004009274272011426</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01156351402530495</v>
+        <v>0.01120743624594668</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -7833,19 +7833,19 @@
         <v>50743</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37810</v>
+        <v>38552</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65641</v>
+        <v>68484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01499827237716267</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01117571911991348</v>
+        <v>0.01139484001418655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01940154419460837</v>
+        <v>0.02024201699635625</v>
       </c>
     </row>
     <row r="23">
@@ -7862,19 +7862,19 @@
         <v>30860</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20727</v>
+        <v>21585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45527</v>
+        <v>44581</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01631853107965307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01096019190383425</v>
+        <v>0.01141390471856797</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02407399250710952</v>
+        <v>0.023573984274289</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -7883,19 +7883,19 @@
         <v>17646</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11397</v>
+        <v>11252</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26255</v>
+        <v>25643</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01182573573085392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007637697856637819</v>
+        <v>0.00754048227312078</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01759502772030513</v>
+        <v>0.01718518409771852</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -7904,19 +7904,19 @@
         <v>48506</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35688</v>
+        <v>36899</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>63195</v>
+        <v>65113</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01433702709891228</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0105485023912139</v>
+        <v>0.01090617053559392</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01867873114095851</v>
+        <v>0.01924570617383382</v>
       </c>
     </row>
     <row r="24">
@@ -7933,19 +7933,19 @@
         <v>61935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45804</v>
+        <v>47344</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81859</v>
+        <v>83020</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03275057533998739</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0242207570314387</v>
+        <v>0.02503511511994671</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04328626308986507</v>
+        <v>0.04390004663466958</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -7954,19 +7954,19 @@
         <v>20851</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14449</v>
+        <v>13689</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29738</v>
+        <v>28571</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01397346100687339</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009683576167819334</v>
+        <v>0.009174145646259744</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01992969233121305</v>
+        <v>0.0191475411725762</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>84</v>
@@ -7975,19 +7975,19 @@
         <v>82786</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64714</v>
+        <v>66059</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>105034</v>
+        <v>104182</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02446911048140327</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01912767403463913</v>
+        <v>0.01952516397484919</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03104503897790712</v>
+        <v>0.03079340094564173</v>
       </c>
     </row>
     <row r="25">
@@ -8004,19 +8004,19 @@
         <v>191690</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164362</v>
+        <v>165874</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>220664</v>
+        <v>224225</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1013636623195054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08691289304866612</v>
+        <v>0.08771235476834945</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1166847453199322</v>
+        <v>0.1185677907725303</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>138</v>
@@ -8025,19 +8025,19 @@
         <v>97086</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82137</v>
+        <v>81344</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113865</v>
+        <v>113788</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06506388642296973</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05504565529355084</v>
+        <v>0.0545140452981448</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0763090817337447</v>
+        <v>0.07625715112165389</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>314</v>
@@ -8046,19 +8046,19 @@
         <v>288776</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>259140</v>
+        <v>259568</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>324816</v>
+        <v>325656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08535399687631776</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07659436891381313</v>
+        <v>0.07672109546471624</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09600635110350822</v>
+        <v>0.0962547630484233</v>
       </c>
     </row>
     <row r="26">
@@ -8075,19 +8075,19 @@
         <v>1565890</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1531155</v>
+        <v>1527544</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1598800</v>
+        <v>1600238</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8280262498450969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8096584877149908</v>
+        <v>0.8077489119708761</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8454282880531875</v>
+        <v>0.8461890215634612</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1789</v>
@@ -8096,19 +8096,19 @@
         <v>1346570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1326979</v>
+        <v>1325565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1365038</v>
+        <v>1365427</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.90243065340688</v>
+        <v>0.9024306534068798</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8893010255096843</v>
+        <v>0.8883538722867472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9148072989434528</v>
+        <v>0.9150680200652694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3124</v>
@@ -8117,19 +8117,19 @@
         <v>2912461</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2868533</v>
+        <v>2872498</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2950558</v>
+        <v>2949873</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8608415931662039</v>
+        <v>0.860841593166204</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8478577421207769</v>
+        <v>0.849029636095773</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8721020198194179</v>
+        <v>0.871899513510481</v>
       </c>
     </row>
     <row r="27">
